--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,84 +49,81 @@
     <t>ripped</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>less</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>though</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -136,52 +133,46 @@
     <t>work</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>one</t>
   </si>
   <si>
     <t>negative</t>
@@ -593,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>0.8571428571428571</v>
@@ -712,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>0.8307692307692308</v>
@@ -783,16 +774,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.5283018867924528</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.3623188405797101</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.3483606557377049</v>
+        <v>0.3475409836065574</v>
       </c>
       <c r="L9">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M9">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7323943661971831</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.3098995695839311</v>
+        <v>0.3045977011494253</v>
       </c>
       <c r="L10">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M10">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7258064516129032</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.2759336099585062</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L11">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6621621621621622</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12">
         <v>0.225</v>
@@ -1162,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6545454545454545</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.1927710843373494</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.1834862385321101</v>
+        <v>0.1773700305810398</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6134453781512605</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K15">
         <v>0.1375661375661376</v>
@@ -1312,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5208333333333334</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K16">
         <v>0.0963855421686747</v>
@@ -1362,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4814814814814815</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1380,31 +1371,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.07624890446976336</v>
+        <v>0.07631578947368421</v>
       </c>
       <c r="L17">
         <v>87</v>
       </c>
       <c r="M17">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,16 +1424,16 @@
         <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.02530824140168722</v>
+        <v>0.03439325113562622</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1454,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1502</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4753623188405797</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C19">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4105263157894737</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1540,13 +1531,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4096385542168675</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1558,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1566,13 +1557,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3937007874015748</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1584,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1592,13 +1583,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3833333333333334</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1610,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1618,13 +1609,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1636,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1644,13 +1635,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3707865168539326</v>
+        <v>0.3127962085308057</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1662,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1670,13 +1661,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1688,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1696,13 +1687,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3069306930693069</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1714,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1722,13 +1713,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2938388625592417</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C29">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1740,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1748,13 +1739,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2653061224489796</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1766,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1774,13 +1765,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2307692307692308</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1792,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1800,13 +1791,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2010309278350516</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1818,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>155</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1826,13 +1817,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1847826086956522</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1844,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>225</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1852,25 +1843,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.180379746835443</v>
+        <v>0.1634472511144131</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>259</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1878,13 +1869,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.175</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1896,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1904,13 +1895,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1735905044510386</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C36">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1922,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>557</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1930,13 +1921,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1613924050632911</v>
+        <v>0.155</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1948,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>265</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1956,13 +1947,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1592356687898089</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1974,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1982,25 +1973,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1371428571428571</v>
+        <v>0.1296829971181556</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2008,13 +1999,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1343612334801762</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C40">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2026,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>393</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2034,13 +2025,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.117816091954023</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2052,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>307</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2060,13 +2051,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1088709677419355</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2078,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2086,13 +2077,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1086142322097378</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2104,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2112,13 +2103,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1074766355140187</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2130,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>191</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2138,13 +2129,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1068493150684932</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2156,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>326</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2164,13 +2155,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.06904231625835189</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2182,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>418</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2190,103 +2181,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06478873239436619</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.06260296540362438</v>
-      </c>
-      <c r="C48">
-        <v>38</v>
-      </c>
-      <c r="D48">
-        <v>39</v>
-      </c>
-      <c r="E48">
-        <v>0.03</v>
-      </c>
-      <c r="F48">
-        <v>0.97</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.05336426914153132</v>
-      </c>
-      <c r="C49">
-        <v>23</v>
-      </c>
-      <c r="D49">
-        <v>26</v>
-      </c>
-      <c r="E49">
-        <v>0.12</v>
-      </c>
-      <c r="F49">
-        <v>0.88</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.03511450381679389</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="D50">
-        <v>23</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>632</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
